--- a/Outputs/Tables/T3.xlsx
+++ b/Outputs/Tables/T3.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Combustion Byproduct (PAH)</t>
+          <t>Combustion Byproduct (Polycyclic Aromatic Hydrocarbon)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Combustion Byproduct (PAH)</t>
+          <t>Combustion Byproduct (Polycyclic Aromatic Hydrocarbon)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Combustion Byproduct (PAH)</t>
+          <t>Combustion Byproduct (Polycyclic Aromatic Hydrocarbon)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Combustion Byproduct (PAH)</t>
+          <t>Combustion Byproduct (Polycyclic Aromatic Hydrocarbon)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PFAS</t>
+          <t>Per- and Polyfluoroalkyl Substances (PFAS)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Combustion Byproduct (PAH)</t>
+          <t>Combustion Byproduct (Polycyclic Aromatic Hydrocarbon)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Combustion Byproduct (PAH)</t>
+          <t>Combustion Byproduct (Polycyclic Aromatic Hydrocarbon)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Combustion Byproduct (PAH)</t>
+          <t>Combustion Byproduct (Polycyclic Aromatic Hydrocarbon)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Insecticide/Pesticide (Insect Repellants)</t>
+          <t>Insecticide/Pesticide (Insect Repellents)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">

--- a/Outputs/Tables/T3.xlsx
+++ b/Outputs/Tables/T3.xlsx
@@ -557,7 +557,7 @@
     <t xml:space="preserve">Organic UV Filter</t>
   </si>
   <si>
-    <t xml:space="preserve">prosulfuron*‡</t>
+    <t xml:space="preserve">Prosulfuron*‡</t>
   </si>
   <si>
     <t xml:space="preserve">Herbicide (Sulfonylurea)</t>

--- a/Outputs/Tables/T3.xlsx
+++ b/Outputs/Tables/T3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t xml:space="preserve">Chemical Name</t>
   </si>
@@ -68,421 +68,361 @@
     <t xml:space="preserve">0·005</t>
   </si>
   <si>
-    <t xml:space="preserve">Cyfluthrin‡</t>
+    <t xml:space="preserve">o-Toluidine†</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dye Intermediate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·56ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·30ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·26ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Hydroxycarbofuran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insecticide/Pesticide (Carbamate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNOP‡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasticizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·25ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·30ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·56ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4-Dimethylphenol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·36ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·54ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·18ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEHP‡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasticizer Metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·06ᵃᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·44ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·50ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetophenone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavoring or Fragrance Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluoranthene‡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combustion Byproduct (PAH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·34ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·18ᵃᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·52ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menthone*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·40ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·10ᵃᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·49ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·09ᵃᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·38ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·47ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methoxychlor†‡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTBNP‡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flame Retardant (Brominated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethyl butyrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·48ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·19ᵃᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·29ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benz(a)anthracene†‡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·30ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·17ᵃᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·48ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-MeFOSAA†</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·07ᵃᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·45ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·38ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terbuthylazine‡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbicide (Triazine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDA*†‡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insecticide/Pesticide (Organophosphate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·09ᵃᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·36ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-NOT†</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·47ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·21ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibutyl phthalate*‡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4'-Methoxychlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o-aminoazotoluene*†‡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD-PABA‡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic UV Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prosulfuron‡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbicide (Sulfonylurea)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·28ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·46ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insecticide/Pesticide (Insect Repellent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·46ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·23ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexanoic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metalaxyl‡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fungicide (Other)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flucythrinate</t>
   </si>
   <si>
     <t xml:space="preserve">Insecticide/Pesticide (Pyrethroid)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0·30ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·28ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·57ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o-Toluidine†</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dye Intermediate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·56ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·30ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·26ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Hydroxycarbofuran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insecticide/Pesticide (Carbamate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Nitroaniline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNOP‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasticizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·25ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·56ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4-Dimethylphenol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·36ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·54ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·18ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEHP‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasticizer Metabolite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·06ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·44ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·50ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetophenone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flavoring or Fragrance Agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluoranthene‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combustion Byproduct (PAH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·34ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·18ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·52ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napropamide*‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbicide (Amide)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menthone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·40ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·10ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·49ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o-Anisidine*†</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyrene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·09ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·38ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·47ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methoxychlor†‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTBNP‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flame Retardant (Brominated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethyl butyrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·48ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·19ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·29ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benz(a)anthracene†‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·30ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·17ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·48ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-MeFOSAA†</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·07ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·45ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·38ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terbuthylazine‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbicide (Triazine)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDA*†‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insecticide/Pesticide (Organophosphate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·09ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·36ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methylparaben*‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preservative (Paraben)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-NOT†</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·47ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·21ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dibutyl phthalate*‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4'-Methoxychlor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·28ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·46ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o-Tolidine†‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o-aminoazotoluene*†‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OD-PABA*‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organic UV Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prosulfuron‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbicide (Sulfonylurea)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insecticide/Pesticide (Insect Repellent)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·46ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·23ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hexanoic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metalaxyl‡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fungicide (Other)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrysene†</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·43ᵃ</t>
+    <t xml:space="preserve">-0·24ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·21ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·45ᵃ</t>
   </si>
   <si>
     <t xml:space="preserve">0·046</t>
   </si>
   <si>
-    <t xml:space="preserve">Flucythrinate*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·24ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·21ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·45ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naphthalene†</t>
+    <t xml:space="preserve">Anthracene†</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·10ᵃᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0·32ᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0·43ᵇ</t>
   </si>
   <si>
     <t xml:space="preserve">0·049</t>
   </si>
   <si>
-    <t xml:space="preserve">Anthracene†</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·10ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·32ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·43ᵇ</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">*- Indicates an annotation (as opposed to an identification)
+    <t xml:space="preserve">*- Indicates level 2 identification
 †- Possible, likely, or known carcinogen
 ‡- Potential endocrine disrupting chemical
-Abbreviations: 2,6-DCP-4'-NPE = 2,6-Dichlorophenyl-4'-nitrophenyl ether; 4-NQO = 4-Nitroquinoline-1-oxide; 5-NOT = 5-Nitro-o-toluidine; BDCM = Bromodichloromethane; BPA = Bisphenol A; DEET = N,N-Diethyl-meta-toluamide; DNOP = Di-n-octyl phthalate; MDA = 4,4'-Diaminodiphenylmethane; MEHP = Mono-2-ethylhexyl phthalate; MMS = Methyl methanesulfonate; N-MeFOSAA = N-Methylperfluoro-1-octanesulfonamidoacetic acid (linear); NDPA = N-Nitrosodi-n-propylamine; OD-PABA = Octyl-dimethyl-p-aminobenzoic acid; PAH = polycyclic aromatic hydrocarbon; PFAS = Per- and polyfluoroalkyl substances; TBBA = 2,3,4,5-Tetrabromobenzoic acid; TDA = 4,4'-Thiodianiline; TEEP = Tetraethyl ethylenediphosphonate; THPI = Tetrahydrophthalimide; TTBNP = Tris(tribromoneopentyl); UV = ultraviolet</t>
+Abbreviations: 5-NOT = 5-Nitro-o-toluidine; DEET = N,N-Diethyl-meta-toluamide; DNOP = Di-n-octyl phthalate; MDA = 4,4'-Diaminodiphenylmethane; MEHP = Mono-2-ethylhexyl phthalate; N-MeFOSAA = N-Methylperfluoro-1-octanesulfonamidoacetic acid (linear); OD-PABA = Octyl-dimethyl-p-aminobenzoic acid; PAH = polycyclic aromatic hydrocarbon; TEEP = Tetraethyl ethylenediphosphonate; TTBNP = Tris(tribromoneopentyl); UV = ultraviolet</t>
   </si>
 </sst>
 </file>
@@ -955,18 +895,18 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -975,18 +915,18 @@
         <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
@@ -995,455 +935,455 @@
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>121</v>
@@ -1452,255 +1392,75 @@
         <v>122</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" ht="100" customHeight="1">
+      <c r="A33" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" ht="100" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Outputs/Tables/T3.xlsx
+++ b/Outputs/Tables/T3.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">0·005</t>
   </si>
   <si>
-    <t xml:space="preserve">o-Toluidine†</t>
+    <t xml:space="preserve">o-Toluidineᵃ</t>
   </si>
   <si>
     <t xml:space="preserve">Dye Intermediate</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">20%</t>
   </si>
   <si>
-    <t xml:space="preserve">DNOP‡</t>
+    <t xml:space="preserve">DNOPᵇ</t>
   </si>
   <si>
     <t xml:space="preserve">Plasticizer</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">0·009</t>
   </si>
   <si>
-    <t xml:space="preserve">MEHP‡</t>
+    <t xml:space="preserve">MEHPᵇ</t>
   </si>
   <si>
     <t xml:space="preserve">Plasticizer Metabolite</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">0·011</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluoranthene‡</t>
+    <t xml:space="preserve">Fluorantheneᵇ</t>
   </si>
   <si>
     <t xml:space="preserve">Combustion Byproduct (PAH)</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">0·012</t>
   </si>
   <si>
-    <t xml:space="preserve">Menthone*</t>
+    <t xml:space="preserve">MenthoneNAᶜ</t>
   </si>
   <si>
     <t xml:space="preserve">-0·40ᵇ</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">0·022</t>
   </si>
   <si>
-    <t xml:space="preserve">Methoxychlor†‡</t>
+    <t xml:space="preserve">Methoxychlorᵃᵇ</t>
   </si>
   <si>
     <t xml:space="preserve">90%</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">0·023</t>
   </si>
   <si>
-    <t xml:space="preserve">TTBNP‡</t>
+    <t xml:space="preserve">TTBNPᵇ</t>
   </si>
   <si>
     <t xml:space="preserve">Flame Retardant (Brominated)</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">0·027</t>
   </si>
   <si>
-    <t xml:space="preserve">Benz(a)anthracene†‡</t>
+    <t xml:space="preserve">Benz(a)anthraceneᵃᵇ</t>
   </si>
   <si>
     <t xml:space="preserve">-0·30ᵇ</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">0·028</t>
   </si>
   <si>
-    <t xml:space="preserve">N-MeFOSAA†</t>
+    <t xml:space="preserve">N-MeFOSAAᵃ</t>
   </si>
   <si>
     <t xml:space="preserve">PFAS</t>
@@ -278,13 +278,13 @@
     <t xml:space="preserve">0·029</t>
   </si>
   <si>
-    <t xml:space="preserve">Terbuthylazine‡</t>
+    <t xml:space="preserve">Terbuthylazineᵇ</t>
   </si>
   <si>
     <t xml:space="preserve">Herbicide (Triazine)</t>
   </si>
   <si>
-    <t xml:space="preserve">MDA*†‡</t>
+    <t xml:space="preserve">MDAᵃᵇᶜ</t>
   </si>
   <si>
     <t xml:space="preserve">0·030</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">0·031</t>
   </si>
   <si>
-    <t xml:space="preserve">5-NOT†</t>
+    <t xml:space="preserve">5-NOTᵃ</t>
   </si>
   <si>
     <t xml:space="preserve">-0·47ᵃ</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">0·035</t>
   </si>
   <si>
-    <t xml:space="preserve">Dibutyl phthalate*‡</t>
+    <t xml:space="preserve">Dibutyl phthalateᵇᶜ</t>
   </si>
   <si>
     <t xml:space="preserve">45%</t>
@@ -329,19 +329,19 @@
     <t xml:space="preserve">0·036</t>
   </si>
   <si>
-    <t xml:space="preserve">o-aminoazotoluene*†‡</t>
+    <t xml:space="preserve">o-aminoazotolueneᵃᵇᶜ</t>
   </si>
   <si>
     <t xml:space="preserve">0·039</t>
   </si>
   <si>
-    <t xml:space="preserve">OD-PABA‡</t>
+    <t xml:space="preserve">OD-PABAᵇ</t>
   </si>
   <si>
     <t xml:space="preserve">Organic UV Filter</t>
   </si>
   <si>
-    <t xml:space="preserve">Prosulfuron‡</t>
+    <t xml:space="preserve">Prosulfuronᵇ</t>
   </si>
   <si>
     <t xml:space="preserve">Herbicide (Sulfonylurea)</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">0·042</t>
   </si>
   <si>
-    <t xml:space="preserve">Metalaxyl‡</t>
+    <t xml:space="preserve">Metalaxylᵇ</t>
   </si>
   <si>
     <t xml:space="preserve">Fungicide (Other)</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">0·046</t>
   </si>
   <si>
-    <t xml:space="preserve">Anthracene†</t>
+    <t xml:space="preserve">Anthraceneᵃ</t>
   </si>
   <si>
     <t xml:space="preserve">0·10ᵃᵇ</t>
@@ -419,9 +419,9 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">*- Indicates level 2 identification
-†- Possible, likely, or known carcinogen
-‡- Potential endocrine disrupting chemical
+    <t xml:space="preserve">ᵃ Possible, likely, or known carcinogen
+ᵇ Potential endocrine disrupting chemical
+ᶜ Indicates level 2 identification
 Abbreviations: 5-NOT = 5-Nitro-o-toluidine; DEET = N,N-Diethyl-meta-toluamide; DNOP = Di-n-octyl phthalate; MDA = 4,4'-Diaminodiphenylmethane; MEHP = Mono-2-ethylhexyl phthalate; N-MeFOSAA = N-Methylperfluoro-1-octanesulfonamidoacetic acid (linear); OD-PABA = Octyl-dimethyl-p-aminobenzoic acid; PAH = polycyclic aromatic hydrocarbon; TEEP = Tetraethyl ethylenediphosphonate; TTBNP = Tris(tribromoneopentyl); UV = ultraviolet</t>
   </si>
 </sst>

--- a/Outputs/Tables/T3.xlsx
+++ b/Outputs/Tables/T3.xlsx
@@ -1,425 +1,433 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11229"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoshsMacbook2015/Desktop/thyroid-exposomics-2025/Outputs/Tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2357EA5-57E0-C04A-B896-771E5299069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table 3" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
-  <si>
-    <t xml:space="preserve">Chemical Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usage Class (Type)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTC_let</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FV-PTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethylan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insecticide/Pesticide (Organochlorine)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o-Cresol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemical Synthesis Intermediate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o-Toluidineᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dye Intermediate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·56ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·30ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·26ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Hydroxycarbofuran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insecticide/Pesticide (Carbamate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNOPᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasticizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·25ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·30ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·56ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4-Dimethylphenol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·36ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·54ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·18ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEHPᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasticizer Metabolite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·06ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·44ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·50ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetophenone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flavoring or Fragrance Agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluorantheneᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combustion Byproduct (PAH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·34ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·18ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·52ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MenthoneNAᶜ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·40ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·10ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·49ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyrene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·09ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·38ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·47ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methoxychlorᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTBNPᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flame Retardant (Brominated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethyl butyrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·48ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·19ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·29ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benz(a)anthraceneᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·30ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·17ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·48ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-MeFOSAAᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·07ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·45ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·38ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terbuthylazineᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbicide (Triazine)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDAᵃᵇᶜ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insecticide/Pesticide (Organophosphate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·09ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·36ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-NOTᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·47ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·21ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dibutyl phthalateᵇᶜ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4'-Methoxychlor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o-aminoazotolueneᵃᵇᶜ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OD-PABAᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organic UV Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prosulfuronᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbicide (Sulfonylurea)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·28ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·46ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insecticide/Pesticide (Insect Repellent)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·46ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·23ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hexanoic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metalaxylᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fungicide (Other)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flucythrinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insecticide/Pesticide (Pyrethroid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·24ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·21ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·45ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthraceneᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·10ᵃᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·32ᵃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0·43ᵇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0·049</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ᵃ Possible, likely, or known carcinogen
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="136">
+  <si>
+    <t>Chemical Name</t>
+  </si>
+  <si>
+    <t>Usage Class (Type)</t>
+  </si>
+  <si>
+    <t>FTC</t>
+  </si>
+  <si>
+    <t>FV-PTC</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Ethylan</t>
+  </si>
+  <si>
+    <t>Insecticide/Pesticide (Organochlorine)</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>o-Cresol</t>
+  </si>
+  <si>
+    <t>Chemical Synthesis Intermediate</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>o-Toluidineᵃ</t>
+  </si>
+  <si>
+    <t>Dye Intermediate</t>
+  </si>
+  <si>
+    <t>-0.56ᵉ</t>
+  </si>
+  <si>
+    <t>0.30ᵈ</t>
+  </si>
+  <si>
+    <t>0.26ᵈ</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>3-Hydroxycarbofuran</t>
+  </si>
+  <si>
+    <t>Insecticide/Pesticide (Carbamate)</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>DNOPᵇ</t>
+  </si>
+  <si>
+    <t>Plasticizer</t>
+  </si>
+  <si>
+    <t>-0.25ᵈ</t>
+  </si>
+  <si>
+    <t>-0.30ᵈ</t>
+  </si>
+  <si>
+    <t>0.56ᵉ</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>2,4-Dimethylphenol</t>
+  </si>
+  <si>
+    <t>-0.36ᵉ</t>
+  </si>
+  <si>
+    <t>0.54ᵈ</t>
+  </si>
+  <si>
+    <t>-0.18ᵉ</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>MEHPᵇ</t>
+  </si>
+  <si>
+    <t>Plasticizer Metabolite</t>
+  </si>
+  <si>
+    <t>0.06ᵈᵉ</t>
+  </si>
+  <si>
+    <t>0.44ᵈ</t>
+  </si>
+  <si>
+    <t>-0.50ᵉ</t>
+  </si>
+  <si>
+    <t>Acetophenone</t>
+  </si>
+  <si>
+    <t>Flavoring or Fragrance Agent</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>Fluorantheneᵇ</t>
+  </si>
+  <si>
+    <t>Combustion Byproduct (PAH)</t>
+  </si>
+  <si>
+    <t>-0.34ᵉ</t>
+  </si>
+  <si>
+    <t>-0.18ᵈᵉ</t>
+  </si>
+  <si>
+    <t>0.52ᵈ</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>Menthoneᶜ</t>
+  </si>
+  <si>
+    <t>-0.40ᵉ</t>
+  </si>
+  <si>
+    <t>-0.10ᵈᵉ</t>
+  </si>
+  <si>
+    <t>0.49ᵈ</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>Pyrene</t>
+  </si>
+  <si>
+    <t>-0.09ᵈᵉ</t>
+  </si>
+  <si>
+    <t>-0.38ᵈ</t>
+  </si>
+  <si>
+    <t>0.47ᵉ</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>Methoxychlorᵃᵇ</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>TTBNPᵇ</t>
+  </si>
+  <si>
+    <t>Flame Retardant (Brominated)</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>Ethyl butyrate</t>
+  </si>
+  <si>
+    <t>0.48ᵉ</t>
+  </si>
+  <si>
+    <t>-0.19ᵈᵉ</t>
+  </si>
+  <si>
+    <t>-0.29ᵈ</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>Benz(a)anthraceneᵃᵇ</t>
+  </si>
+  <si>
+    <t>-0.30ᵉ</t>
+  </si>
+  <si>
+    <t>-0.17ᵈᵉ</t>
+  </si>
+  <si>
+    <t>0.48ᵈ</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>N-MeFOSAAᵃ</t>
+  </si>
+  <si>
+    <t>PFAS</t>
+  </si>
+  <si>
+    <t>0.07ᵈᵉ</t>
+  </si>
+  <si>
+    <t>-0.45ᵈ</t>
+  </si>
+  <si>
+    <t>0.38ᵉ</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>Terbuthylazineᵇ</t>
+  </si>
+  <si>
+    <t>Herbicide (Triazine)</t>
+  </si>
+  <si>
+    <t>MDAᵃᵇᶜ</t>
+  </si>
+  <si>
+    <t>0.030</t>
+  </si>
+  <si>
+    <t>TEEP</t>
+  </si>
+  <si>
+    <t>Insecticide/Pesticide (Organophosphate)</t>
+  </si>
+  <si>
+    <t>0.09ᵈᵉ</t>
+  </si>
+  <si>
+    <t>0.36ᵉ</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>5-NOTᵃ</t>
+  </si>
+  <si>
+    <t>-0.47ᵈ</t>
+  </si>
+  <si>
+    <t>0.21ᵈ</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>Dibutyl phthalateᵇᶜ</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>2,4'-Methoxychlor</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>o-aminoazotolueneᵃᵇᶜ</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>OD-PABAᵇ</t>
+  </si>
+  <si>
+    <t>Organic UV Filter</t>
+  </si>
+  <si>
+    <t>Prosulfuronᵇ</t>
+  </si>
+  <si>
+    <t>Herbicide (Sulfonylurea)</t>
+  </si>
+  <si>
+    <t>-0.28ᵉ</t>
+  </si>
+  <si>
+    <t>0.46ᵈ</t>
+  </si>
+  <si>
+    <t>DEET</t>
+  </si>
+  <si>
+    <t>Insecticide/Pesticide (Insect Repellent)</t>
+  </si>
+  <si>
+    <t>-0.46ᵈ</t>
+  </si>
+  <si>
+    <t>0.23ᵈ</t>
+  </si>
+  <si>
+    <t>Hexanoic acid</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>Metalaxylᵇ</t>
+  </si>
+  <si>
+    <t>Fungicide (Other)</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>Flucythrinate</t>
+  </si>
+  <si>
+    <t>Insecticide/Pesticide (Pyrethroid)</t>
+  </si>
+  <si>
+    <t>-0.24ᵈ</t>
+  </si>
+  <si>
+    <t>-0.21ᵈ</t>
+  </si>
+  <si>
+    <t>0.45ᵈ</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t>Anthraceneᵃ</t>
+  </si>
+  <si>
+    <t>0.10ᵈᵉ</t>
+  </si>
+  <si>
+    <t>0.32ᵈ</t>
+  </si>
+  <si>
+    <t>-0.43ᵉ</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ᵃ Possible, likely, or known carcinogen
 ᵇ Potential endocrine disrupting chemical
 ᶜ Indicates level 2 identification
 Abbreviations: 5-NOT = 5-Nitro-o-toluidine; DEET = N,N-Diethyl-meta-toluamide; DNOP = Di-n-octyl phthalate; MDA = 4,4'-Diaminodiphenylmethane; MEHP = Mono-2-ethylhexyl phthalate; N-MeFOSAA = N-Methylperfluoro-1-octanesulfonamidoacetic acid (linear); OD-PABA = Octyl-dimethyl-p-aminobenzoic acid; PAH = polycyclic aromatic hydrocarbon; TEEP = Tetraethyl ethylenediphosphonate; TTBNP = Tris(tribromoneopentyl); UV = ultraviolet</t>
@@ -429,8 +437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -449,16 +456,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <i/>
     </font>
     <font>
+      <b/>
       <sz val="7.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <b/>
     </font>
   </fonts>
   <fills count="3">
@@ -483,17 +490,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -502,26 +516,35 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -803,42 +826,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="30.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="12.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="12.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="12.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -878,7 +898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -898,7 +918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -918,7 +938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -938,7 +958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -958,7 +978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -978,7 +998,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -998,7 +1018,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -1018,7 +1038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1038,7 +1058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1058,7 +1078,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1078,7 +1098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -1098,7 +1118,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -1118,7 +1138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>77</v>
       </c>
@@ -1138,7 +1158,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -1158,7 +1178,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -1178,7 +1198,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -1198,7 +1218,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>92</v>
       </c>
@@ -1218,7 +1238,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
@@ -1238,7 +1258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
@@ -1258,7 +1278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>103</v>
       </c>
@@ -1278,7 +1298,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
@@ -1298,7 +1318,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
@@ -1318,7 +1338,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
@@ -1338,7 +1358,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -1358,7 +1378,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>117</v>
       </c>
@@ -1378,7 +1398,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>119</v>
       </c>
@@ -1398,7 +1418,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
@@ -1418,7 +1438,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>129</v>
       </c>
@@ -1438,7 +1458,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>134</v>
       </c>
@@ -1448,21 +1468,21 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" ht="100" customHeight="1">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Outputs/Tables/T3.xlsx
+++ b/Outputs/Tables/T3.xlsx
@@ -1,433 +1,425 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11229"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoshsMacbook2015/Desktop/thyroid-exposomics-2025/Outputs/Tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2357EA5-57E0-C04A-B896-771E5299069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33140" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 3" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 3" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="136">
-  <si>
-    <t>Chemical Name</t>
-  </si>
-  <si>
-    <t>Usage Class (Type)</t>
-  </si>
-  <si>
-    <t>FTC</t>
-  </si>
-  <si>
-    <t>FV-PTC</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>p-value</t>
-  </si>
-  <si>
-    <t>Ethylan</t>
-  </si>
-  <si>
-    <t>Insecticide/Pesticide (Organochlorine)</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>o-Cresol</t>
-  </si>
-  <si>
-    <t>Chemical Synthesis Intermediate</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>65%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>o-Toluidineᵃ</t>
-  </si>
-  <si>
-    <t>Dye Intermediate</t>
-  </si>
-  <si>
-    <t>-0.56ᵉ</t>
-  </si>
-  <si>
-    <t>0.30ᵈ</t>
-  </si>
-  <si>
-    <t>0.26ᵈ</t>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>3-Hydroxycarbofuran</t>
-  </si>
-  <si>
-    <t>Insecticide/Pesticide (Carbamate)</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>DNOPᵇ</t>
-  </si>
-  <si>
-    <t>Plasticizer</t>
-  </si>
-  <si>
-    <t>-0.25ᵈ</t>
-  </si>
-  <si>
-    <t>-0.30ᵈ</t>
-  </si>
-  <si>
-    <t>0.56ᵉ</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>2,4-Dimethylphenol</t>
-  </si>
-  <si>
-    <t>-0.36ᵉ</t>
-  </si>
-  <si>
-    <t>0.54ᵈ</t>
-  </si>
-  <si>
-    <t>-0.18ᵉ</t>
-  </si>
-  <si>
-    <t>0.009</t>
-  </si>
-  <si>
-    <t>MEHPᵇ</t>
-  </si>
-  <si>
-    <t>Plasticizer Metabolite</t>
-  </si>
-  <si>
-    <t>0.06ᵈᵉ</t>
-  </si>
-  <si>
-    <t>0.44ᵈ</t>
-  </si>
-  <si>
-    <t>-0.50ᵉ</t>
-  </si>
-  <si>
-    <t>Acetophenone</t>
-  </si>
-  <si>
-    <t>Flavoring or Fragrance Agent</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>0.011</t>
-  </si>
-  <si>
-    <t>Fluorantheneᵇ</t>
-  </si>
-  <si>
-    <t>Combustion Byproduct (PAH)</t>
-  </si>
-  <si>
-    <t>-0.34ᵉ</t>
-  </si>
-  <si>
-    <t>-0.18ᵈᵉ</t>
-  </si>
-  <si>
-    <t>0.52ᵈ</t>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>Menthoneᶜ</t>
-  </si>
-  <si>
-    <t>-0.40ᵉ</t>
-  </si>
-  <si>
-    <t>-0.10ᵈᵉ</t>
-  </si>
-  <si>
-    <t>0.49ᵈ</t>
-  </si>
-  <si>
-    <t>0.014</t>
-  </si>
-  <si>
-    <t>Pyrene</t>
-  </si>
-  <si>
-    <t>-0.09ᵈᵉ</t>
-  </si>
-  <si>
-    <t>-0.38ᵈ</t>
-  </si>
-  <si>
-    <t>0.47ᵉ</t>
-  </si>
-  <si>
-    <t>0.022</t>
-  </si>
-  <si>
-    <t>Methoxychlorᵃᵇ</t>
-  </si>
-  <si>
-    <t>90%</t>
-  </si>
-  <si>
-    <t>0.023</t>
-  </si>
-  <si>
-    <t>TTBNPᵇ</t>
-  </si>
-  <si>
-    <t>Flame Retardant (Brominated)</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>0.026</t>
-  </si>
-  <si>
-    <t>Ethyl butyrate</t>
-  </si>
-  <si>
-    <t>0.48ᵉ</t>
-  </si>
-  <si>
-    <t>-0.19ᵈᵉ</t>
-  </si>
-  <si>
-    <t>-0.29ᵈ</t>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t>Benz(a)anthraceneᵃᵇ</t>
-  </si>
-  <si>
-    <t>-0.30ᵉ</t>
-  </si>
-  <si>
-    <t>-0.17ᵈᵉ</t>
-  </si>
-  <si>
-    <t>0.48ᵈ</t>
-  </si>
-  <si>
-    <t>0.028</t>
-  </si>
-  <si>
-    <t>N-MeFOSAAᵃ</t>
-  </si>
-  <si>
-    <t>PFAS</t>
-  </si>
-  <si>
-    <t>0.07ᵈᵉ</t>
-  </si>
-  <si>
-    <t>-0.45ᵈ</t>
-  </si>
-  <si>
-    <t>0.38ᵉ</t>
-  </si>
-  <si>
-    <t>0.029</t>
-  </si>
-  <si>
-    <t>Terbuthylazineᵇ</t>
-  </si>
-  <si>
-    <t>Herbicide (Triazine)</t>
-  </si>
-  <si>
-    <t>MDAᵃᵇᶜ</t>
-  </si>
-  <si>
-    <t>0.030</t>
-  </si>
-  <si>
-    <t>TEEP</t>
-  </si>
-  <si>
-    <t>Insecticide/Pesticide (Organophosphate)</t>
-  </si>
-  <si>
-    <t>0.09ᵈᵉ</t>
-  </si>
-  <si>
-    <t>0.36ᵉ</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>5-NOTᵃ</t>
-  </si>
-  <si>
-    <t>-0.47ᵈ</t>
-  </si>
-  <si>
-    <t>0.21ᵈ</t>
-  </si>
-  <si>
-    <t>0.035</t>
-  </si>
-  <si>
-    <t>Dibutyl phthalateᵇᶜ</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>2,4'-Methoxychlor</t>
-  </si>
-  <si>
-    <t>0.036</t>
-  </si>
-  <si>
-    <t>o-aminoazotolueneᵃᵇᶜ</t>
-  </si>
-  <si>
-    <t>0.039</t>
-  </si>
-  <si>
-    <t>OD-PABAᵇ</t>
-  </si>
-  <si>
-    <t>Organic UV Filter</t>
-  </si>
-  <si>
-    <t>Prosulfuronᵇ</t>
-  </si>
-  <si>
-    <t>Herbicide (Sulfonylurea)</t>
-  </si>
-  <si>
-    <t>-0.28ᵉ</t>
-  </si>
-  <si>
-    <t>0.46ᵈ</t>
-  </si>
-  <si>
-    <t>DEET</t>
-  </si>
-  <si>
-    <t>Insecticide/Pesticide (Insect Repellent)</t>
-  </si>
-  <si>
-    <t>-0.46ᵈ</t>
-  </si>
-  <si>
-    <t>0.23ᵈ</t>
-  </si>
-  <si>
-    <t>Hexanoic acid</t>
-  </si>
-  <si>
-    <t>0.042</t>
-  </si>
-  <si>
-    <t>Metalaxylᵇ</t>
-  </si>
-  <si>
-    <t>Fungicide (Other)</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>Flucythrinate</t>
-  </si>
-  <si>
-    <t>Insecticide/Pesticide (Pyrethroid)</t>
-  </si>
-  <si>
-    <t>-0.24ᵈ</t>
-  </si>
-  <si>
-    <t>-0.21ᵈ</t>
-  </si>
-  <si>
-    <t>0.45ᵈ</t>
-  </si>
-  <si>
-    <t>0.046</t>
-  </si>
-  <si>
-    <t>Anthraceneᵃ</t>
-  </si>
-  <si>
-    <t>0.10ᵈᵉ</t>
-  </si>
-  <si>
-    <t>0.32ᵈ</t>
-  </si>
-  <si>
-    <t>-0.43ᵉ</t>
-  </si>
-  <si>
-    <t>0.049</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>ᵃ Possible, likely, or known carcinogen
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+  <si>
+    <t xml:space="preserve">Chemical Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usage Class (Type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FV-PTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethylan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insecticide/Pesticide (Organochlorine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o-Cresol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical Synthesis Intermediate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o-Toluidineᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dye Intermediate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.56ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Hydroxycarbofuran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insecticide/Pesticide (Carbamate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNOPᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasticizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.25ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4-Dimethylphenol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.36ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEHPᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasticizer Metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06ᵈᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.50ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetophenone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavoring or Fragrance Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluorantheneᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combustion Byproduct (PAH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.34ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18ᵈᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menthoneᶜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.40ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10ᵈᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.09ᵈᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.38ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methoxychlorᵃᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTBNPᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flame Retardant (Brominated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethyl butyrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.19ᵈᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.29ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benz(a)anthraceneᵃᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.17ᵈᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-MeFOSAAᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07ᵈᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.45ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terbuthylazineᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbicide (Triazine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDAᵃᵇᶜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insecticide/Pesticide (Organophosphate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09ᵈᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-NOTᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.47ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibutyl phthalateᵇᶜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4'-Methoxychlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o-aminoazotolueneᵃᵇᶜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD-PABAᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic UV Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prosulfuronᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbicide (Sulfonylurea)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.28ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insecticide/Pesticide (Insect Repellent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.46ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexanoic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metalaxylᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fungicide (Other)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flucythrinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insecticide/Pesticide (Pyrethroid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.24ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthraceneᵃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10ᵈᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32ᵈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.43ᵉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ᵃ Possible, likely, or known carcinogen
 ᵇ Potential endocrine disrupting chemical
 ᶜ Indicates level 2 identification
 Abbreviations: 5-NOT = 5-Nitro-o-toluidine; DEET = N,N-Diethyl-meta-toluamide; DNOP = Di-n-octyl phthalate; MDA = 4,4'-Diaminodiphenylmethane; MEHP = Mono-2-ethylhexyl phthalate; N-MeFOSAA = N-Methylperfluoro-1-octanesulfonamidoacetic acid (linear); OD-PABA = Octyl-dimethyl-p-aminobenzoic acid; PAH = polycyclic aromatic hydrocarbon; TEEP = Tetraethyl ethylenediphosphonate; TTBNP = Tris(tribromoneopentyl); UV = ultraviolet</t>
@@ -437,7 +429,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -456,16 +449,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <i/>
     </font>
     <font>
-      <b/>
       <sz val="7.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <b/>
     </font>
   </fonts>
   <fills count="3">
@@ -490,24 +483,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -516,35 +502,26 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -826,39 +803,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="30.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="12.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="12.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="12.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,7 +858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -898,7 +878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -918,7 +898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -938,7 +918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -958,7 +938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -978,7 +958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -998,7 +978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -1018,7 +998,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -1038,7 +1018,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1058,7 +1038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1078,7 +1058,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1098,7 +1078,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -1118,7 +1098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -1138,7 +1118,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>77</v>
       </c>
@@ -1158,7 +1138,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -1178,7 +1158,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -1198,7 +1178,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -1218,7 +1198,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>92</v>
       </c>
@@ -1238,7 +1218,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
@@ -1258,7 +1238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
@@ -1278,7 +1258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" s="1" t="s">
         <v>103</v>
       </c>
@@ -1298,7 +1278,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
@@ -1318,7 +1298,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
@@ -1338,7 +1318,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
@@ -1358,7 +1338,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -1378,7 +1358,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" s="1" t="s">
         <v>117</v>
       </c>
@@ -1398,7 +1378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" s="1" t="s">
         <v>119</v>
       </c>
@@ -1418,7 +1398,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
@@ -1438,7 +1418,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" s="1" t="s">
         <v>129</v>
       </c>
@@ -1458,7 +1438,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" s="3" t="s">
         <v>134</v>
       </c>
@@ -1468,21 +1448,21 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="33" ht="100" customHeight="1">
+      <c r="A33" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>